--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DF453-D5D0-454E-A4DA-A2379C766EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D8743-E46B-484D-8A6B-18B156788AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets - DelayedMatrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets - Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Serial No.</t>
   </si>
@@ -52,13 +53,115 @@
   </si>
   <si>
     <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>AztekinTailData()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCE </t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>31535 13199</t>
+  </si>
+  <si>
+    <t>1.28 GB</t>
+  </si>
+  <si>
+    <t>950 MB</t>
+  </si>
+  <si>
+    <t>10.2 GB</t>
+  </si>
+  <si>
+    <t>6.67 GB</t>
+  </si>
+  <si>
+    <t>BachMammaryData()</t>
+  </si>
+  <si>
+    <t>27998 25806</t>
+  </si>
+  <si>
+    <t>2.23 GB</t>
+  </si>
+  <si>
+    <t>1.49 GB</t>
+  </si>
+  <si>
+    <t>17.8 GB</t>
+  </si>
+  <si>
+    <t>11.6 GB</t>
+  </si>
+  <si>
+    <t>BaronPancreasData('human')</t>
+  </si>
+  <si>
+    <t>20125  8569</t>
+  </si>
+  <si>
+    <t>718 MB</t>
+  </si>
+  <si>
+    <t>524 MB</t>
+  </si>
+  <si>
+    <t>4.28 GB</t>
+  </si>
+  <si>
+    <t>2.76 GB</t>
+  </si>
+  <si>
+    <t>BaronPancreasData('mouse')</t>
+  </si>
+  <si>
+    <t>14878  1886</t>
+  </si>
+  <si>
+    <t>137 MB</t>
+  </si>
+  <si>
+    <t>100 MB</t>
+  </si>
+  <si>
+    <t>681 MB</t>
+  </si>
+  <si>
+    <t>439 MB</t>
+  </si>
+  <si>
+    <t>KotliarovPBMCData()</t>
+  </si>
+  <si>
+    <t>32738 58654</t>
+  </si>
+  <si>
+    <t>39 GB</t>
+  </si>
+  <si>
+    <t>26.8 GB</t>
+  </si>
+  <si>
+    <t>1.92 GB</t>
+  </si>
+  <si>
+    <t>1.32 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +176,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF404040"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,20 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CD5DE3-3231-46F2-8D04-E8131F147CFA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="112.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,36 +561,283 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.78</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4">
+        <v>33.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>31.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890AA06-7495-4630-9E3E-AAFDB966B052}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="112.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>34.61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4">
+        <v>35.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4">
+        <v>31.28</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D8743-E46B-484D-8A6B-18B156788AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1549F797-BB3D-4997-91B2-1F919F1F16C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets - DelayedMatrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Datasets - Matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Datasets - dgCMatrix - 1500" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets - dgCMatrix - 40%" sheetId="3" r:id="rId2"/>
+    <sheet name="Datasets - Matrix - 1500" sheetId="2" r:id="rId3"/>
+    <sheet name="Datasets - Matrix - 40%" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
   <si>
     <t>Serial No.</t>
   </si>
@@ -155,13 +157,88 @@
   </si>
   <si>
     <t>1.32 GB</t>
+  </si>
+  <si>
+    <t>Sparsity</t>
+  </si>
+  <si>
+    <t>BuettnerESCData()</t>
+  </si>
+  <si>
+    <t>38293   288</t>
+  </si>
+  <si>
+    <t>204 MB</t>
+  </si>
+  <si>
+    <t>142 MB</t>
+  </si>
+  <si>
+    <t>26774 21086</t>
+  </si>
+  <si>
+    <t>CampbellBrainData()</t>
+  </si>
+  <si>
+    <t>1.71 GB</t>
+  </si>
+  <si>
+    <t>1.27 GB</t>
+  </si>
+  <si>
+    <t>12.6 GB</t>
+  </si>
+  <si>
+    <t>8.44 GB</t>
+  </si>
+  <si>
+    <t>Avg. Counts/Cell</t>
+  </si>
+  <si>
+    <t>992 MB</t>
+  </si>
+  <si>
+    <t>6.33 GB</t>
+  </si>
+  <si>
+    <t>91 MB</t>
+  </si>
+  <si>
+    <t>1.04 GB</t>
+  </si>
+  <si>
+    <t>21.6 GB</t>
+  </si>
+  <si>
+    <t>73.5 MB</t>
+  </si>
+  <si>
+    <t>317 MB</t>
+  </si>
+  <si>
+    <t>364 MB</t>
+  </si>
+  <si>
+    <t>1.94 GB</t>
+  </si>
+  <si>
+    <t>650 MB</t>
+  </si>
+  <si>
+    <t>4.67 GB</t>
+  </si>
+  <si>
+    <t>1.16 GB</t>
+  </si>
+  <si>
+    <t>8.11 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +272,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,10 +298,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,8 +310,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CD5DE3-3231-46F2-8D04-E8131F147CFA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -549,11 +637,12 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,16 +659,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,17 +690,23 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="H2" s="4">
         <v>25.78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -621,11 +722,17 @@
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="H3" s="4">
         <v>33.18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,11 +748,17 @@
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="H4" s="4">
         <v>27.02</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -661,11 +774,17 @@
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="H5" s="4">
         <v>27.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -681,8 +800,66 @@
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="H6" s="4">
         <v>31.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25.73</v>
       </c>
     </row>
   </sheetData>
@@ -692,11 +869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890AA06-7495-4630-9E3E-AAFDB966B052}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E399F0-569B-4277-BF6C-0EA1870C717C}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,11 +881,12 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,16 +903,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -745,22 +929,28 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>34.61</v>
-      </c>
-      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>49.22</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -771,16 +961,22 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4">
-        <v>34.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -791,16 +987,22 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4">
-        <v>35.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -811,16 +1013,22 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4">
-        <v>35.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -831,17 +1039,578 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4">
-        <v>31.28</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="H7" s="4">
+        <v>55.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890AA06-7495-4630-9E3E-AAFDB966B052}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>34.61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>35.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="H6" s="4">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>33.020000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{FB3022A1-F024-4F95-88EF-3779B8B053B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25B53F-BCCE-475C-AD40-6703FB485E14}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>54.22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>54.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>54.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="H7" s="4">
+        <v>55.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{BAFF70E7-151C-4995-A316-3131735683E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1549F797-BB3D-4997-91B2-1F919F1F16C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A5D8F-B42A-48DC-8329-EA24D221ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets - dgCMatrix - 1500" sheetId="1" r:id="rId1"/>
-    <sheet name="Datasets - dgCMatrix - 40%" sheetId="3" r:id="rId2"/>
-    <sheet name="Datasets - Matrix - 1500" sheetId="2" r:id="rId3"/>
+    <sheet name="Datasets - Matrix - 1500" sheetId="2" r:id="rId2"/>
+    <sheet name="Datasets - dgCMatrix - 40%" sheetId="3" r:id="rId3"/>
     <sheet name="Datasets - Matrix - 40%" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
   <si>
     <t>Serial No.</t>
   </si>
@@ -232,6 +232,106 @@
   </si>
   <si>
     <t>8.11 GB</t>
+  </si>
+  <si>
+    <t>Sample datasets matrix not sparse</t>
+  </si>
+  <si>
+    <t>9.3 GB</t>
+  </si>
+  <si>
+    <t>4.07 GB</t>
+  </si>
+  <si>
+    <t>186 MB</t>
+  </si>
+  <si>
+    <t>83.1 MB</t>
+  </si>
+  <si>
+    <t>31.5 GB</t>
+  </si>
+  <si>
+    <t>13.8 GB</t>
+  </si>
+  <si>
+    <t>475 MB</t>
+  </si>
+  <si>
+    <t>2.87 GB</t>
+  </si>
+  <si>
+    <t>1.25 GB</t>
+  </si>
+  <si>
+    <t>11.9 GB</t>
+  </si>
+  <si>
+    <t>5.21 GB</t>
+  </si>
+  <si>
+    <t>6.83 GB</t>
+  </si>
+  <si>
+    <t>3 GB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample datasets matrix </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sparse</t>
+    </r>
+  </si>
+  <si>
+    <t>17 GB</t>
+  </si>
+  <si>
+    <t>8.33 GB</t>
+  </si>
+  <si>
+    <t>29.5 GB</t>
+  </si>
+  <si>
+    <t>14.5 GB</t>
+  </si>
+  <si>
+    <t>7.11 GB</t>
+  </si>
+  <si>
+    <t>3.45 GB</t>
+  </si>
+  <si>
+    <t>1.17 GB</t>
+  </si>
+  <si>
+    <t>563 MB</t>
+  </si>
+  <si>
+    <t>78.3 GB</t>
+  </si>
+  <si>
+    <t>38.4 GB</t>
+  </si>
+  <si>
+    <t>454 MB</t>
+  </si>
+  <si>
+    <t>224 MB</t>
+  </si>
+  <si>
+    <t>23.1 GB</t>
+  </si>
+  <si>
+    <t>11.3 GB</t>
   </si>
 </sst>
 </file>
@@ -869,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E399F0-569B-4277-BF6C-0EA1870C717C}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890AA06-7495-4630-9E3E-AAFDB966B052}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G17" sqref="A10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>13434.67</v>
@@ -941,12 +1041,12 @@
         <v>0.92961329999999998</v>
       </c>
       <c r="H2" s="4">
-        <v>49.22</v>
+        <v>34.61</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -961,10 +1061,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
         <v>8239.6479999999992</v>
@@ -973,7 +1073,7 @@
         <v>0.91526839999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>47.98</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -987,10 +1087,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>5828.2250000000004</v>
@@ -999,7 +1099,7 @@
         <v>0.90622409999999998</v>
       </c>
       <c r="H4" s="4">
-        <v>49.3</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1013,10 +1113,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3">
         <v>4990.0860000000002</v>
@@ -1025,7 +1125,7 @@
         <v>0.88971820000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>46.35</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1039,10 +1139,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3">
         <v>2065.2449999999999</v>
@@ -1051,7 +1151,7 @@
         <v>0.97802089999999997</v>
       </c>
       <c r="H6" s="4">
-        <v>45.83</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1068,7 +1168,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>2767864</v>
@@ -1077,7 +1177,7 @@
         <v>0.7440639</v>
       </c>
       <c r="H7" s="4">
-        <v>55.39</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1091,10 +1191,10 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>4024.6439999999998</v>
@@ -1103,27 +1203,45 @@
         <v>0.92791619999999997</v>
       </c>
       <c r="H8" s="4">
-        <v>41.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>33.020000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="8:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{FB3022A1-F024-4F95-88EF-3779B8B053B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1890AA06-7495-4630-9E3E-AAFDB966B052}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E399F0-569B-4277-BF6C-0EA1870C717C}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,10 +1297,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3">
         <v>13434.67</v>
@@ -1191,12 +1309,12 @@
         <v>0.92961329999999998</v>
       </c>
       <c r="H2" s="4">
-        <v>34.61</v>
+        <v>49.22</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1211,10 +1329,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3">
         <v>8239.6479999999992</v>
@@ -1223,7 +1341,7 @@
         <v>0.91526839999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>34.83</v>
+        <v>47.98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1237,10 +1355,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3">
         <v>5828.2250000000004</v>
@@ -1249,7 +1367,7 @@
         <v>0.90622409999999998</v>
       </c>
       <c r="H4" s="4">
-        <v>35.51</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1263,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3">
         <v>4990.0860000000002</v>
@@ -1275,7 +1393,7 @@
         <v>0.88971820000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>35.54</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1289,10 +1407,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3">
         <v>2065.2449999999999</v>
@@ -1301,7 +1419,7 @@
         <v>0.97802089999999997</v>
       </c>
       <c r="H6" s="4">
-        <v>31.28</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1318,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3">
         <v>2767864</v>
@@ -1327,7 +1445,7 @@
         <v>0.7440639</v>
       </c>
       <c r="H7" s="4">
-        <v>30.39</v>
+        <v>55.39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1341,10 +1459,10 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3">
         <v>4024.6439999999998</v>
@@ -1353,30 +1471,202 @@
         <v>0.92791619999999997</v>
       </c>
       <c r="H8" s="4">
-        <v>33.020000000000003</v>
-      </c>
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="3">
+        <v>240964.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.2304880000000001E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>51.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="3">
+        <v>344673.6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.254037E-4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="3">
+        <v>294641.40000000002</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.2356220000000001E-4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="3">
+        <v>133908.9</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.2466180000000001E-4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>51.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3">
+        <v>181130.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.236872E-4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>51.48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3">
+        <v>251977.7</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.23218E-4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3">
+        <v>283814.40000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.2319380000000001E-4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{FB3022A1-F024-4F95-88EF-3779B8B053B0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25B53F-BCCE-475C-AD40-6703FB485E14}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -1606,6 +1896,172 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3">
+        <v>240964.1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.2304880000000001E-4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>56.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3">
+        <v>344673.6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.254037E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3">
+        <v>294641.40000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.2356220000000001E-4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3">
+        <v>133908.9</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.2466180000000001E-4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3">
+        <v>181130.1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.236872E-4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>56.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3">
+        <v>251977.7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.23218E-4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>56.22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3">
+        <v>283814.40000000002</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.2319380000000001E-4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>56.08</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{BAFF70E7-151C-4995-A316-3131735683E0}"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44A5D8F-B42A-48DC-8329-EA24D221ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08466B33-5035-45CF-81D0-A13B028E3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets - dgCMatrix - 1500" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="131">
   <si>
     <t>Serial No.</t>
   </si>
@@ -333,12 +333,123 @@
   <si>
     <t>11.3 GB</t>
   </si>
+  <si>
+    <t>pbmc4k</t>
+  </si>
+  <si>
+    <t>33694  4340</t>
+  </si>
+  <si>
+    <t>19.1 MB</t>
+  </si>
+  <si>
+    <t>8.08 MB</t>
+  </si>
+  <si>
+    <t>2.39 GB</t>
+  </si>
+  <si>
+    <t>1.06 GB</t>
+  </si>
+  <si>
+    <t>pbmc3k</t>
+  </si>
+  <si>
+    <t>32738  2700</t>
+  </si>
+  <si>
+    <t>16.3 MB</t>
+  </si>
+  <si>
+    <t>7.16 MB</t>
+  </si>
+  <si>
+    <t>1.29 GB</t>
+  </si>
+  <si>
+    <t>644 MB</t>
+  </si>
+  <si>
+    <t>pbmc6k</t>
+  </si>
+  <si>
+    <t>pbmc8k</t>
+  </si>
+  <si>
+    <t>pbmc33k</t>
+  </si>
+  <si>
+    <t>32738  5419</t>
+  </si>
+  <si>
+    <t>18.5 MB</t>
+  </si>
+  <si>
+    <t>8.37 MB</t>
+  </si>
+  <si>
+    <t>2.31 GB</t>
+  </si>
+  <si>
+    <t>24 MB</t>
+  </si>
+  <si>
+    <t>9.93 MB</t>
+  </si>
+  <si>
+    <t>33694  8381</t>
+  </si>
+  <si>
+    <t>4.63 GB</t>
+  </si>
+  <si>
+    <t>2.04 GB</t>
+  </si>
+  <si>
+    <t>43.8 MB</t>
+  </si>
+  <si>
+    <t>20.6 MB</t>
+  </si>
+  <si>
+    <t>32738 33148</t>
+  </si>
+  <si>
+    <t>14.2 GB</t>
+  </si>
+  <si>
+    <t>7.83 GB</t>
+  </si>
+  <si>
+    <t>SCE Total Memory</t>
+  </si>
+  <si>
+    <t>ES Total Memory</t>
+  </si>
+  <si>
+    <t>83494 MB</t>
+  </si>
+  <si>
+    <t>54734.7 MB</t>
+  </si>
+  <si>
+    <t>7743.2 MB</t>
+  </si>
+  <si>
+    <t>4485.3 MB</t>
+  </si>
+  <si>
+    <t>2148.1 MB</t>
+  </si>
+  <si>
+    <t>2700.4 MB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +491,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,12 +520,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +545,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E399F0-569B-4277-BF6C-0EA1870C717C}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,11 +1391,14 @@
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="112.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,13 +1424,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1311,14 +1464,17 @@
       <c r="H2" s="4">
         <v>49.22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1343,8 +1499,11 @@
       <c r="H3" s="4">
         <v>47.98</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1369,8 +1528,11 @@
       <c r="H4" s="4">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1395,8 +1557,11 @@
       <c r="H5" s="4">
         <v>46.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1421,8 +1586,11 @@
       <c r="H6" s="4">
         <v>45.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1447,8 +1615,11 @@
       <c r="H7" s="4">
         <v>55.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1473,19 +1644,22 @@
       <c r="H8" s="4">
         <v>41.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1507,8 +1681,11 @@
       <c r="H12" s="4">
         <v>51.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -1530,8 +1707,11 @@
       <c r="H13" s="4">
         <v>50.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>5</v>
       </c>
@@ -1553,8 +1733,11 @@
       <c r="H14" s="4">
         <v>50.96</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4</v>
       </c>
@@ -1576,8 +1759,11 @@
       <c r="H15" s="4">
         <v>51.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1599,8 +1785,11 @@
       <c r="H16" s="4">
         <v>51.48</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -1622,8 +1811,11 @@
       <c r="H17" s="4">
         <v>50.85</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1645,9 +1837,160 @@
       <c r="H18" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2366.9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.97412810000000005</v>
+      </c>
+      <c r="H20" s="4">
+        <v>56.07</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4349.0379999999996</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.9608314</v>
+      </c>
+      <c r="H21" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2027.635</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.97715010000000002</v>
+      </c>
+      <c r="H22" s="4">
+        <v>54.76</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4639.0479999999998</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.95825519999999997</v>
+      </c>
+      <c r="H23" s="4">
+        <v>58.63</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2057.8820000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.97661039999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>52.97</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="4">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25B53F-BCCE-475C-AD40-6703FB485E14}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,11 +2012,11 @@
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,13 +2042,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1730,14 +2082,17 @@
       <c r="H2" s="4">
         <v>54.22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1762,8 +2117,11 @@
       <c r="H3" s="4">
         <v>54.44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1788,8 +2146,11 @@
       <c r="H4" s="4">
         <v>54.67</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1814,8 +2175,11 @@
       <c r="H5" s="4">
         <v>53.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1840,8 +2204,11 @@
       <c r="H6" s="4">
         <v>44.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1866,8 +2233,11 @@
       <c r="H7" s="4">
         <v>55.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1892,16 +2262,19 @@
       <c r="H8" s="4">
         <v>49.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1924,7 +2297,7 @@
         <v>56.24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1946,8 +2319,11 @@
       <c r="H12" s="4">
         <v>55.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -1969,8 +2345,11 @@
       <c r="H13" s="4">
         <v>56.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1992,8 +2371,11 @@
       <c r="H14" s="4">
         <v>57.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
@@ -2015,8 +2397,11 @@
       <c r="H15" s="4">
         <v>56.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -2038,8 +2423,11 @@
       <c r="H16" s="4">
         <v>56.22</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2061,12 +2449,147 @@
       <c r="H17" s="4">
         <v>56.08</v>
       </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2366.9</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.97412810000000005</v>
+      </c>
+      <c r="H19" s="4">
+        <v>50.08</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4349.0379999999996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.9608314</v>
+      </c>
+      <c r="H20" s="4">
+        <v>55.65</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2027.635</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.97715010000000002</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44.16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4639.0479999999998</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.95825519999999997</v>
+      </c>
+      <c r="H22" s="4">
+        <v>55.94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2057.8820000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.97661039999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" location="available-data-sets" xr:uid="{BAFF70E7-151C-4995-A316-3131735683E0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08466B33-5035-45CF-81D0-A13B028E3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F4A0D-0287-4573-8743-F1AFA5905376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets - dgCMatrix - 1500" sheetId="1" r:id="rId1"/>
     <sheet name="Datasets - Matrix - 1500" sheetId="2" r:id="rId2"/>
     <sheet name="Datasets - dgCMatrix - 40%" sheetId="3" r:id="rId3"/>
     <sheet name="Datasets - Matrix - 40%" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="137">
   <si>
     <t>Serial No.</t>
   </si>
@@ -234,9 +235,6 @@
     <t>8.11 GB</t>
   </si>
   <si>
-    <t>Sample datasets matrix not sparse</t>
-  </si>
-  <si>
     <t>9.3 GB</t>
   </si>
   <si>
@@ -276,22 +274,6 @@
     <t>3 GB</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sample datasets matrix </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sparse</t>
-    </r>
-  </si>
-  <si>
     <t>17 GB</t>
   </si>
   <si>
@@ -443,6 +425,30 @@
   </si>
   <si>
     <t>2700.4 MB</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (1)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (2)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (3)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (4)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (5)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (6)</t>
+  </si>
+  <si>
+    <t>Sample sparse dataset  (7)</t>
+  </si>
+  <si>
+    <t>Savings 2</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E399F0-569B-4277-BF6C-0EA1870C717C}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,25 +1415,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1449,24 +1455,30 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="3">
-        <v>13434.67</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.92961329999999998</v>
       </c>
       <c r="H2" s="4">
         <v>49.22</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
@@ -1484,24 +1496,30 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8239.6479999999992</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.91526839999999998</v>
       </c>
       <c r="H3" s="4">
         <v>47.98</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1513,24 +1531,30 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5828.2250000000004</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.90622409999999998</v>
       </c>
       <c r="H4" s="4">
         <v>49.3</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1542,24 +1566,30 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4990.0860000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.88971820000000001</v>
       </c>
       <c r="H5" s="4">
         <v>46.35</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1571,24 +1601,30 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2065.2449999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.97802089999999997</v>
       </c>
       <c r="H6" s="4">
         <v>45.83</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1600,24 +1636,30 @@
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2767864</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.7440639</v>
       </c>
       <c r="H7" s="4">
         <v>55.39</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1629,368 +1671,464 @@
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4024.6439999999998</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.92791619999999997</v>
       </c>
       <c r="H8" s="4">
         <v>41.99</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>283814.40000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.2319380000000001E-4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4">
+        <v>51</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>251977.7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.23218E-4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4">
+        <v>50.85</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>131</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>181130.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.236872E-4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="4">
+        <v>51.48</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>7</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>133908.9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.2466180000000001E-4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="4">
+        <v>51.88</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
+        <v>294641.40000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.2356220000000001E-4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50.96</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>344673.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.254037E-4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50.66</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3">
+        <v>240964.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.2304880000000001E-4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="4">
+        <v>51.08</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2366.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.97412810000000005</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="4">
+        <v>56.07</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="3">
-        <v>240964.1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.2304880000000001E-4</v>
-      </c>
-      <c r="H12" s="4">
-        <v>51.08</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="3">
-        <v>344673.6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.254037E-4</v>
-      </c>
-      <c r="H13" s="4">
-        <v>50.66</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="3">
-        <v>294641.40000000002</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.2356220000000001E-4</v>
-      </c>
-      <c r="H14" s="4">
-        <v>50.96</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="3">
-        <v>133908.9</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.2466180000000001E-4</v>
-      </c>
-      <c r="H15" s="4">
-        <v>51.88</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="3">
-        <v>181130.1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.236872E-4</v>
-      </c>
-      <c r="H16" s="4">
-        <v>51.48</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3">
+        <v>4349.0379999999996</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.9608314</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="3">
-        <v>251977.7</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.23218E-4</v>
-      </c>
-      <c r="H17" s="4">
-        <v>50.85</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="3">
-        <v>283814.40000000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.2319380000000001E-4</v>
+        <v>107</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2027.635</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.97715010000000002</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="H18" s="4">
-        <v>51</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>54.76</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4639.0479999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.95825519999999997</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="4">
+        <v>58.63</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2366.9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.97412810000000005</v>
+        <v>118</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2057.8820000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.97661039999999999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H20" s="4">
-        <v>56.07</v>
+        <v>52.97</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4349.0379999999996</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.9608314</v>
-      </c>
-      <c r="H21" s="4">
-        <v>57.7</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K20" s="4">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2027.635</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.97715010000000002</v>
-      </c>
-      <c r="H22" s="4">
-        <v>54.76</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4639.0479999999998</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.95825519999999997</v>
-      </c>
-      <c r="H23" s="4">
-        <v>58.63</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2057.8820000000001</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.97661039999999999</v>
-      </c>
-      <c r="H24" s="4">
-        <v>52.97</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="4">
-        <v>34.44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25B53F-BCCE-475C-AD40-6703FB485E14}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,6 +2149,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -2027,25 +2166,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2067,24 +2206,30 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="3">
-        <v>13434.67</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.92961329999999998</v>
       </c>
       <c r="H2" s="4">
         <v>54.22</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
@@ -2102,24 +2247,30 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8239.6479999999992</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.91526839999999998</v>
       </c>
       <c r="H3" s="4">
         <v>54.44</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2131,24 +2282,30 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5828.2250000000004</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.90622409999999998</v>
       </c>
       <c r="H4" s="4">
         <v>54.67</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2160,24 +2317,30 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4990.0860000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.88971820000000001</v>
       </c>
       <c r="H5" s="4">
         <v>53.45</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2189,24 +2352,30 @@
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2065.2449999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.97802089999999997</v>
       </c>
       <c r="H6" s="4">
         <v>44.62</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2218,24 +2387,30 @@
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2767864</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.7440639</v>
       </c>
       <c r="H7" s="4">
         <v>55.39</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2247,349 +2422,841 @@
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4024.6439999999998</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.92791619999999997</v>
       </c>
       <c r="H8" s="4">
         <v>49.76</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>283814.40000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.2319380000000001E-4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="4">
+        <v>56.08</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>130</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>251977.7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.23218E-4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4">
+        <v>56.22</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>7</v>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="3">
-        <v>240964.1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.2304880000000001E-4</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>181130.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.236872E-4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="4">
-        <v>56.24</v>
+        <v>56.45</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>6</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="3">
-        <v>344673.6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.254037E-4</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>133908.9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.2466180000000001E-4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H12" s="4">
-        <v>55.32</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>57.05</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>5</v>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>294641.40000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.2356220000000001E-4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3">
-        <v>294641.40000000002</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.2356220000000001E-4</v>
       </c>
       <c r="H13" s="4">
         <v>56.19</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>4</v>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3">
-        <v>133908.9</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.2466180000000001E-4</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
+        <v>344673.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.254037E-4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H14" s="4">
-        <v>57.05</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+        <v>55.32</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>3</v>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="3">
-        <v>181130.1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.236872E-4</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>240964.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.2304880000000001E-4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H15" s="4">
-        <v>56.45</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>2</v>
+        <v>56.24</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2366.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.97412810000000005</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="4">
+        <v>50.08</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4349.0379999999996</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.9608314</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4">
+        <v>55.65</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="3">
-        <v>251977.7</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.23218E-4</v>
-      </c>
-      <c r="H16" s="4">
-        <v>56.22</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3">
-        <v>283814.40000000002</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.2319380000000001E-4</v>
-      </c>
-      <c r="H17" s="4">
-        <v>56.08</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2027.635</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.97715010000000002</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44.16</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2366.9</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.97412810000000005</v>
+        <v>113</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4639.0479999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.95825519999999997</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H19" s="4">
-        <v>50.08</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>55.94</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4349.0379999999996</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.9608314</v>
+        <v>118</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2057.8820000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.97661039999999999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="H20" s="4">
-        <v>55.65</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2027.635</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.97715010000000002</v>
-      </c>
-      <c r="H21" s="4">
-        <v>44.16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4639.0479999999998</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.95825519999999997</v>
-      </c>
-      <c r="H22" s="4">
-        <v>55.94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2057.8820000000001</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.97661039999999999</v>
-      </c>
-      <c r="H23" s="4">
         <v>44.86</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D09EF5-175B-491C-9867-5A09624EC43D}">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="B1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13434.67</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.92961329999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>49.22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>54.22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8239.6479999999992</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.91526839999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>47.98</v>
+      </c>
+      <c r="F3" s="4">
+        <v>54.44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5828.2250000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.90622409999999998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>49.3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>54.67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4990.0860000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.88971820000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>46.35</v>
+      </c>
+      <c r="F5" s="4">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2065.2449999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.97802089999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44.62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2767864</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.7440639</v>
+      </c>
+      <c r="E7" s="4">
+        <v>55.39</v>
+      </c>
+      <c r="F7" s="4">
+        <v>55.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4024.6439999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92791619999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41.99</v>
+      </c>
+      <c r="F8" s="4">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3">
+        <v>283814.40000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.2319380000000001E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4">
+        <v>56.08</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="3">
+        <v>251977.7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.23218E-4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50.85</v>
+      </c>
+      <c r="F10" s="4">
+        <v>56.22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3">
+        <v>181130.1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.236872E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>51.48</v>
+      </c>
+      <c r="F11" s="4">
+        <v>56.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3">
+        <v>133908.9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.2466180000000001E-4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>51.88</v>
+      </c>
+      <c r="F12" s="4">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="3">
+        <v>294641.40000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.2356220000000001E-4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50.96</v>
+      </c>
+      <c r="F13" s="4">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="3">
+        <v>344673.6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.254037E-4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>50.66</v>
+      </c>
+      <c r="F14" s="4">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3">
+        <v>240964.1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.2304880000000001E-4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>51.08</v>
+      </c>
+      <c r="F15" s="4">
+        <v>56.24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2366.9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.97412810000000005</v>
+      </c>
+      <c r="E16" s="4">
+        <v>56.07</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50.08</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4349.0379999999996</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.9608314</v>
+      </c>
+      <c r="E17" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="F17" s="4">
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2027.635</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.97715010000000002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>54.76</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4639.0479999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.95825519999999997</v>
+      </c>
+      <c r="E19" s="4">
+        <v>58.63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>55.94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2057.8820000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.97661039999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>52.97</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\MS-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F4A0D-0287-4573-8743-F1AFA5905376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761AC3F-4960-4C7B-9437-3949FD32C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{77E5B6A9-E91E-4611-9D29-FED228E59174}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets - dgCMatrix - 1500" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="138">
   <si>
     <t>Serial No.</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>Savings 2</t>
+  </si>
+  <si>
+    <t>12030 MB</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,10 +2038,10 @@
         <v>54.76</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>13210</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>8817</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -2070,10 +2073,10 @@
         <v>58.63</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
+        <v>23294.9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -2140,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B25B53F-BCCE-475C-AD40-6703FB485E14}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2788,10 +2791,10 @@
         <v>44.16</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>4703.1000000000004</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>2907</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -2823,10 +2826,10 @@
         <v>55.94</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>9762</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>6687</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -2858,10 +2861,10 @@
         <v>44.86</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>16241</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>19050.2</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -2907,7 +2910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D09EF5-175B-491C-9867-5A09624EC43D}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="B1:F20"/>
     </sheetView>
   </sheetViews>
